--- a/documents/Published/Rotating Chart/RotatingChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Rotating Chart/RotatingChartByMAQSoftwareChecklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18518"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Desktop\final Power BI code\Rotating chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Rotating Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46172271-4C21-47D3-8FBD-88CCA43ACC4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13280" xr2:uid="{67278F39-5C2F-4C21-84D9-7B8CB41EFB1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" xr2:uid="{67278F39-5C2F-4C21-84D9-7B8CB41EFB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="BVT" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>S no</t>
   </si>
@@ -267,6 +268,21 @@
   <si>
     <t>1. Color of title will be set to 'Purple'
 2. Text size of title will be resized to '15'</t>
+  </si>
+  <si>
+    <t>Negative Support</t>
+  </si>
+  <si>
+    <t>Drag columns with negative values</t>
+  </si>
+  <si>
+    <t>1. Drag 'Organization' column in 'Category 
+Data' field
+2.Drag 'Quarter 1 Growth/Fall' in 'Measure Data'
+3. Drag 'Quarter 2 Growth/Fall' in 'Measure Data'</t>
+  </si>
+  <si>
+    <t>Plot should render for negative values also and data labels should also appear for the respective bars.</t>
   </si>
 </sst>
 </file>
@@ -749,19 +765,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFE4D4-682B-4136-8526-C2C15BB103EA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -795,7 +813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -812,7 +830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -829,7 +847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -846,7 +864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -861,6 +879,23 @@
       </c>
       <c r="E6" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -876,12 +911,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="75.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -892,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -903,7 +938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -914,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -925,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -936,7 +971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -947,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -958,7 +993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -969,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -980,7 +1015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -991,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1013,7 +1048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1035,7 +1070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1046,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1057,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1068,21 +1103,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="18"/>
     </row>
-    <row r="20" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1093,7 +1128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -1104,33 +1139,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="8"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="18"/>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>19</v>
       </c>
@@ -1141,7 +1176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>20</v>
       </c>
